--- a/recta temp.xlsx
+++ b/recta temp.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="4935" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="4935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="d" sheetId="3" r:id="rId3"/>
     <sheet name="new" sheetId="4" r:id="rId4"/>
+    <sheet name="Interpolation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>y</t>
   </si>
@@ -138,14 +139,37 @@
   <si>
     <t>sobre 6</t>
   </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Interpola</t>
+  </si>
+  <si>
+    <t>e%</t>
+  </si>
+  <si>
+    <t>Interpolacion de Wolfram Alpha</t>
+  </si>
+  <si>
+    <t>1pt = 4/3 px</t>
+  </si>
+  <si>
+    <t>Se da un polinomio de grado cualquiera Ax^3+Bx^2*Cx*D = Y   se le  aplican los valores de x e y y se tien un ssitema de equcaiones que se requslve</t>
+  </si>
+  <si>
+    <t>para obener los parametros A;B;C;D;E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,11 +277,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,9 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,10 +341,24 @@
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -332,6 +368,229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolation!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolation!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolation!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolation!$C$6:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6578689685937511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69384832"/>
+        <c:axId val="69386624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69384832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69386624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69386624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69384832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2963,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -2983,21 +3242,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="18"/>
@@ -3022,7 +3281,7 @@
         <v>5.3</v>
       </c>
       <c r="G4" s="19">
-        <f>+F4-C4</f>
+        <f t="shared" ref="G4:G15" si="0">+F4-C4</f>
         <v>3.4</v>
       </c>
       <c r="H4" s="19"/>
@@ -3039,7 +3298,7 @@
         <v>3.45</v>
       </c>
       <c r="D5" s="19">
-        <f t="shared" ref="D5:D16" si="0">+(C5+26.3)/0.05</f>
+        <f t="shared" ref="D5:D15" si="1">+(C5+26.3)/0.05</f>
         <v>595</v>
       </c>
       <c r="E5" s="19"/>
@@ -3048,7 +3307,7 @@
         <v>5.75</v>
       </c>
       <c r="G5" s="19">
-        <f>+F5-C5</f>
+        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="H5" s="19"/>
@@ -3065,7 +3324,7 @@
         <v>3.85</v>
       </c>
       <c r="D6" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>603</v>
       </c>
       <c r="E6" s="19"/>
@@ -3073,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="19">
-        <f>+F6-C6</f>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="H6" s="19"/>
@@ -3090,7 +3349,7 @@
         <v>2.35</v>
       </c>
       <c r="D7" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="E7" s="19"/>
@@ -3099,7 +3358,7 @@
         <v>3.45</v>
       </c>
       <c r="G7" s="19">
-        <f>+F7-C7</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H7" s="19"/>
@@ -3116,7 +3375,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>549</v>
       </c>
       <c r="E8" s="19"/>
@@ -3124,7 +3383,7 @@
         <v>2.6</v>
       </c>
       <c r="G8" s="19">
-        <f>+F8-C8</f>
+        <f t="shared" si="0"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="H8" s="19"/>
@@ -3141,7 +3400,7 @@
         <v>1.85</v>
       </c>
       <c r="D9" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>563</v>
       </c>
       <c r="E9" s="19"/>
@@ -3150,7 +3409,7 @@
         <v>4.25</v>
       </c>
       <c r="G9" s="19">
-        <f>+F9-C9</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="H9" s="19"/>
@@ -3167,7 +3426,7 @@
         <v>3.25</v>
       </c>
       <c r="D10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>591</v>
       </c>
       <c r="E10" s="19"/>
@@ -3175,7 +3434,7 @@
         <v>5.7</v>
       </c>
       <c r="G10" s="19">
-        <f>+F10-C10</f>
+        <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="H10" s="19"/>
@@ -3192,7 +3451,7 @@
         <v>3.35</v>
       </c>
       <c r="D11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="E11" s="19"/>
@@ -3201,7 +3460,7 @@
         <v>5.75</v>
       </c>
       <c r="G11" s="19">
-        <f>+F11-C11</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="H11" s="19"/>
@@ -3218,7 +3477,7 @@
         <v>3.5</v>
       </c>
       <c r="D12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="E12" s="19"/>
@@ -3226,7 +3485,7 @@
         <v>5.5</v>
       </c>
       <c r="G12" s="19">
-        <f>+F12-C12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H12" s="19"/>
@@ -3243,7 +3502,7 @@
         <v>1.8</v>
       </c>
       <c r="D13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>562</v>
       </c>
       <c r="E13" s="19"/>
@@ -3251,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="19">
-        <f>+F13-C13</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H13" s="19"/>
@@ -3268,7 +3527,7 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="E14" s="19"/>
@@ -3276,7 +3535,7 @@
         <v>2.4</v>
       </c>
       <c r="G14" s="19">
-        <f>+F14-C14</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H14" s="19"/>
@@ -3293,7 +3552,7 @@
         <v>4.2</v>
       </c>
       <c r="D15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="E15" s="19"/>
@@ -3301,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="19">
-        <f>+F15-C15</f>
+        <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
       <c r="H15" s="19"/>
@@ -3340,23 +3599,23 @@
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3365,7 +3624,7 @@
         <v>1.8</v>
       </c>
       <c r="D19" s="19">
-        <f>+(C19+26.3)/0.05</f>
+        <f t="shared" ref="D19:D31" si="2">+(C19+26.3)/0.05</f>
         <v>562</v>
       </c>
       <c r="E19" s="19"/>
@@ -3373,21 +3632,21 @@
         <v>2</v>
       </c>
       <c r="G19" s="19">
-        <f>+F19-C19</f>
+        <f t="shared" ref="G19:G31" si="3">+F19-C19</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="H19" s="19">
         <f>+$I$17*D19+$J$17</f>
         <v>3.4551724137931075</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f>+F19-H19</f>
         <v>-1.4551724137931075</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="30" t="s">
         <v>37</v>
       </c>
       <c r="M19" t="s">
@@ -3396,10 +3655,10 @@
       <c r="N19" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3408,7 +3667,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="19">
-        <f>+(C20+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>545</v>
       </c>
       <c r="E20" s="19"/>
@@ -3416,36 +3675,36 @@
         <v>2.4</v>
       </c>
       <c r="G20" s="19">
-        <f>+F20-C20</f>
+        <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20:H30" si="1">+$I$17*D20+$J$17</f>
+        <f t="shared" ref="H20:H29" si="4">+$I$17*D20+$J$17</f>
         <v>2.3999999999999986</v>
       </c>
-      <c r="I20" s="23">
-        <f t="shared" ref="I20:I30" si="2">+F20-H20</f>
+      <c r="I20" s="22">
+        <f t="shared" ref="I20:I30" si="5">+F20-H20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <f>+I17</f>
         <v>6.2068965517241378E-2</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="26">
         <v>0.05</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="26">
         <f>+K17</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="27">
         <f>+(O33-O22)/(K33-K22)</f>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="27">
         <f>+(P33-P22)/(K33-K22)</f>
         <v>1.1818181818181816E-2</v>
       </c>
@@ -3455,7 +3714,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D21" s="19">
-        <f>+(C21+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>549</v>
       </c>
       <c r="E21" s="19"/>
@@ -3463,36 +3722,36 @@
         <v>2.6</v>
       </c>
       <c r="G21" s="19">
-        <f>+F21-C21</f>
+        <f t="shared" si="3"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.6482758620689708</v>
       </c>
-      <c r="I21" s="23">
-        <f t="shared" si="2"/>
+      <c r="I21" s="22">
+        <f t="shared" si="5"/>
         <v>-4.8275862068970721E-2</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="26">
         <f>+J17</f>
         <v>-31.427586206896549</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="26">
         <v>-26.3</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="26">
         <f>+L17</f>
         <v>-166.28571428571428</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="27">
         <f>+O22-O20*K22</f>
         <v>-4.9090909090909083</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="27">
         <f>+P22-P20*K22</f>
         <v>-1.0909090909090899</v>
       </c>
@@ -3502,7 +3761,7 @@
         <v>2.35</v>
       </c>
       <c r="D22" s="19">
-        <f>+(C22+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>573</v>
       </c>
       <c r="E22" s="19"/>
@@ -3511,36 +3770,36 @@
         <v>3.45</v>
       </c>
       <c r="G22" s="19">
-        <f>+F22-C22</f>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.1379310344827616</v>
       </c>
-      <c r="I22" s="23">
-        <f t="shared" si="2"/>
+      <c r="I22" s="22">
+        <f t="shared" si="5"/>
         <v>-0.68793103448276138</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>600</v>
       </c>
-      <c r="L22" s="25">
-        <f>+$K22*L$20+L$21</f>
+      <c r="L22" s="24">
+        <f t="shared" ref="L22:N33" si="6">+$K22*L$20+L$21</f>
         <v>5.8137931034482762</v>
       </c>
-      <c r="M22" s="25">
-        <f>+$K22*M$20+M$21</f>
+      <c r="M22" s="24">
+        <f t="shared" si="6"/>
         <v>3.6999999999999993</v>
       </c>
-      <c r="N22" s="25">
-        <f>+$K22*N$20+N$21</f>
+      <c r="N22" s="24">
+        <f t="shared" si="6"/>
         <v>5.1428571428571388</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="29">
         <v>6</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="29">
         <v>6</v>
       </c>
     </row>
@@ -3549,7 +3808,7 @@
         <v>1.85</v>
       </c>
       <c r="D23" s="19">
-        <f>+(C23+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>563</v>
       </c>
       <c r="E23" s="19"/>
@@ -3558,38 +3817,38 @@
         <v>4.25</v>
       </c>
       <c r="G23" s="19">
-        <f>+F23-C23</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.5172413793103487</v>
       </c>
-      <c r="I23" s="23">
-        <f t="shared" si="2"/>
+      <c r="I23" s="22">
+        <f t="shared" si="5"/>
         <v>0.73275862068965125</v>
       </c>
       <c r="K23">
         <v>610</v>
       </c>
-      <c r="L23" s="25">
-        <f>+$K23*L$20+L$21</f>
+      <c r="L23" s="24">
+        <f t="shared" si="6"/>
         <v>6.434482758620689</v>
       </c>
-      <c r="M23" s="25">
-        <f>+$K23*M$20+M$21</f>
+      <c r="M23" s="24">
+        <f t="shared" si="6"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="N23" s="25">
-        <f>+$K23*N$20+N$21</f>
+      <c r="N23" s="24">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O23" s="25">
-        <f>+$K23*O$20+O$21</f>
+      <c r="O23" s="24">
+        <f t="shared" ref="O23:P32" si="7">+$K23*O$20+O$21</f>
         <v>6.1818181818181817</v>
       </c>
-      <c r="P23" s="25">
-        <f>+$K23*P$20+P$21</f>
+      <c r="P23" s="24">
+        <f t="shared" si="7"/>
         <v>6.1181818181818182</v>
       </c>
     </row>
@@ -3598,7 +3857,7 @@
         <v>1.9</v>
       </c>
       <c r="D24" s="19">
-        <f>+(C24+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>564</v>
       </c>
       <c r="E24" s="19"/>
@@ -3606,38 +3865,38 @@
         <v>5.3</v>
       </c>
       <c r="G24" s="19">
-        <f>+F24-C24</f>
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.57931034482759</v>
       </c>
-      <c r="I24" s="23">
-        <f t="shared" si="2"/>
+      <c r="I24" s="22">
+        <f t="shared" si="5"/>
         <v>1.7206896551724098</v>
       </c>
       <c r="K24">
         <v>620</v>
       </c>
-      <c r="L24" s="25">
-        <f>+$K24*L$20+L$21</f>
+      <c r="L24" s="24">
+        <f t="shared" si="6"/>
         <v>7.0551724137931018</v>
       </c>
-      <c r="M24" s="25">
-        <f>+$K24*M$20+M$21</f>
+      <c r="M24" s="24">
+        <f t="shared" si="6"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="N24" s="25">
-        <f>+$K24*N$20+N$21</f>
+      <c r="N24" s="24">
+        <f t="shared" si="6"/>
         <v>10.857142857142861</v>
       </c>
-      <c r="O24" s="25">
-        <f>+$K24*O$20+O$21</f>
+      <c r="O24" s="24">
+        <f t="shared" si="7"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="P24" s="25">
-        <f>+$K24*P$20+P$21</f>
+      <c r="P24" s="24">
+        <f t="shared" si="7"/>
         <v>6.2363636363636363</v>
       </c>
     </row>
@@ -3646,7 +3905,7 @@
         <v>3.5</v>
       </c>
       <c r="D25" s="19">
-        <f>+(C25+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>596</v>
       </c>
       <c r="E25" s="19"/>
@@ -3654,38 +3913,38 @@
         <v>5.5</v>
       </c>
       <c r="G25" s="19">
-        <f>+F25-C25</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.565517241379311</v>
       </c>
-      <c r="I25" s="23">
-        <f t="shared" si="2"/>
+      <c r="I25" s="22">
+        <f t="shared" si="5"/>
         <v>-6.5517241379311031E-2</v>
       </c>
       <c r="K25">
         <v>630</v>
       </c>
-      <c r="L25" s="25">
-        <f>+$K25*L$20+L$21</f>
+      <c r="L25" s="24">
+        <f t="shared" si="6"/>
         <v>7.6758620689655217</v>
       </c>
-      <c r="M25" s="25">
-        <f>+$K25*M$20+M$21</f>
+      <c r="M25" s="24">
+        <f t="shared" si="6"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="N25" s="25">
-        <f>+$K25*N$20+N$21</f>
+      <c r="N25" s="24">
+        <f t="shared" si="6"/>
         <v>13.714285714285722</v>
       </c>
-      <c r="O25" s="25">
-        <f>+$K25*O$20+O$21</f>
+      <c r="O25" s="24">
+        <f t="shared" si="7"/>
         <v>6.545454545454545</v>
       </c>
-      <c r="P25" s="25">
-        <f>+$K25*P$20+P$21</f>
+      <c r="P25" s="24">
+        <f t="shared" si="7"/>
         <v>6.3545454545454545</v>
       </c>
     </row>
@@ -3694,7 +3953,7 @@
         <v>3.25</v>
       </c>
       <c r="D26" s="19">
-        <f>+(C26+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>591</v>
       </c>
       <c r="E26" s="19"/>
@@ -3702,38 +3961,38 @@
         <v>5.7</v>
       </c>
       <c r="G26" s="19">
-        <f>+F26-C26</f>
+        <f t="shared" si="3"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.2551724137931046</v>
       </c>
-      <c r="I26" s="23">
-        <f t="shared" si="2"/>
+      <c r="I26" s="22">
+        <f t="shared" si="5"/>
         <v>0.44482758620689555</v>
       </c>
       <c r="K26">
         <v>640</v>
       </c>
-      <c r="L26" s="25">
-        <f>+$K26*L$20+L$21</f>
+      <c r="L26" s="24">
+        <f t="shared" si="6"/>
         <v>8.2965517241379345</v>
       </c>
-      <c r="M26" s="25">
-        <f>+$K26*M$20+M$21</f>
+      <c r="M26" s="24">
+        <f t="shared" si="6"/>
         <v>5.6999999999999993</v>
       </c>
-      <c r="N26" s="25">
-        <f>+$K26*N$20+N$21</f>
+      <c r="N26" s="24">
+        <f t="shared" si="6"/>
         <v>16.571428571428555</v>
       </c>
-      <c r="O26" s="25">
-        <f>+$K26*O$20+O$21</f>
+      <c r="O26" s="24">
+        <f t="shared" si="7"/>
         <v>6.7272727272727284</v>
       </c>
-      <c r="P26" s="25">
-        <f>+$K26*P$20+P$21</f>
+      <c r="P26" s="24">
+        <f t="shared" si="7"/>
         <v>6.4727272727272727</v>
       </c>
     </row>
@@ -3742,7 +4001,7 @@
         <v>3.45</v>
       </c>
       <c r="D27" s="19">
-        <f>+(C27+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="E27" s="19"/>
@@ -3751,38 +4010,38 @@
         <v>5.75</v>
       </c>
       <c r="G27" s="19">
-        <f>+F27-C27</f>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5034482758620697</v>
       </c>
-      <c r="I27" s="23">
-        <f t="shared" si="2"/>
+      <c r="I27" s="22">
+        <f t="shared" si="5"/>
         <v>0.24655172413793025</v>
       </c>
       <c r="K27">
         <v>650</v>
       </c>
-      <c r="L27" s="25">
-        <f>+$K27*L$20+L$21</f>
+      <c r="L27" s="24">
+        <f t="shared" si="6"/>
         <v>8.9172413793103473</v>
       </c>
-      <c r="M27" s="25">
-        <f>+$K27*M$20+M$21</f>
+      <c r="M27" s="24">
+        <f t="shared" si="6"/>
         <v>6.1999999999999993</v>
       </c>
-      <c r="N27" s="25">
-        <f>+$K27*N$20+N$21</f>
+      <c r="N27" s="24">
+        <f t="shared" si="6"/>
         <v>19.428571428571416</v>
       </c>
-      <c r="O27" s="25">
-        <f>+$K27*O$20+O$21</f>
+      <c r="O27" s="24">
+        <f t="shared" si="7"/>
         <v>6.9090909090909101</v>
       </c>
-      <c r="P27" s="25">
-        <f>+$K27*P$20+P$21</f>
+      <c r="P27" s="24">
+        <f t="shared" si="7"/>
         <v>6.5909090909090908</v>
       </c>
     </row>
@@ -3791,7 +4050,7 @@
         <v>3.35</v>
       </c>
       <c r="D28" s="19">
-        <f>+(C28+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>593</v>
       </c>
       <c r="E28" s="19"/>
@@ -3800,38 +4059,38 @@
         <v>5.75</v>
       </c>
       <c r="G28" s="19">
-        <f>+F28-C28</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.3793103448275872</v>
       </c>
-      <c r="I28" s="23">
-        <f t="shared" si="2"/>
+      <c r="I28" s="22">
+        <f t="shared" si="5"/>
         <v>0.37068965517241281</v>
       </c>
       <c r="K28">
         <v>660</v>
       </c>
-      <c r="L28" s="25">
-        <f>+$K28*L$20+L$21</f>
+      <c r="L28" s="24">
+        <f t="shared" si="6"/>
         <v>9.5379310344827601</v>
       </c>
-      <c r="M28" s="25">
-        <f>+$K28*M$20+M$21</f>
+      <c r="M28" s="24">
+        <f t="shared" si="6"/>
         <v>6.6999999999999993</v>
       </c>
-      <c r="N28" s="25">
-        <f>+$K28*N$20+N$21</f>
+      <c r="N28" s="24">
+        <f t="shared" si="6"/>
         <v>22.285714285714278</v>
       </c>
-      <c r="O28" s="25">
-        <f>+$K28*O$20+O$21</f>
+      <c r="O28" s="24">
+        <f t="shared" si="7"/>
         <v>7.0909090909090917</v>
       </c>
-      <c r="P28" s="25">
-        <f>+$K28*P$20+P$21</f>
+      <c r="P28" s="24">
+        <f t="shared" si="7"/>
         <v>6.709090909090909</v>
       </c>
     </row>
@@ -3840,7 +4099,7 @@
         <v>3.85</v>
       </c>
       <c r="D29" s="19">
-        <f>+(C29+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>603</v>
       </c>
       <c r="E29" s="19"/>
@@ -3848,38 +4107,38 @@
         <v>6</v>
       </c>
       <c r="G29" s="19">
-        <f>+F29-C29</f>
+        <f t="shared" si="3"/>
         <v>2.15</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I29" s="23">
-        <f t="shared" si="2"/>
+      <c r="I29" s="22">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="30">
         <v>670</v>
       </c>
-      <c r="L29" s="32">
-        <f>+$K29*L$20+L$21</f>
+      <c r="L29" s="31">
+        <f t="shared" si="6"/>
         <v>10.158620689655173</v>
       </c>
-      <c r="M29" s="32">
-        <f>+$K29*M$20+M$21</f>
+      <c r="M29" s="31">
+        <f t="shared" si="6"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="N29" s="32">
-        <f>+$K29*N$20+N$21</f>
+      <c r="N29" s="31">
+        <f t="shared" si="6"/>
         <v>25.142857142857139</v>
       </c>
-      <c r="O29" s="32">
-        <f>+$K29*O$20+O$21</f>
+      <c r="O29" s="31">
+        <f t="shared" si="7"/>
         <v>7.2727272727272734</v>
       </c>
-      <c r="P29" s="32">
-        <f>+$K29*P$20+P$21</f>
+      <c r="P29" s="31">
+        <f t="shared" si="7"/>
         <v>6.8272727272727272</v>
       </c>
     </row>
@@ -3888,7 +4147,7 @@
         <v>4.2</v>
       </c>
       <c r="D30" s="19">
-        <f>+(C30+26.3)/0.05</f>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="E30" s="19"/>
@@ -3896,352 +4155,352 @@
         <v>8</v>
       </c>
       <c r="G30" s="19">
-        <f>+F30-C30</f>
+        <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
       <c r="H30" s="19">
         <f>+$K$17*D30+$L$17</f>
         <v>8</v>
       </c>
-      <c r="I30" s="23">
-        <f t="shared" si="2"/>
+      <c r="I30" s="22">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30">
         <v>680</v>
       </c>
-      <c r="L30" s="25">
-        <f>+$K30*L$20+L$21</f>
+      <c r="L30" s="24">
+        <f t="shared" si="6"/>
         <v>10.779310344827586</v>
       </c>
-      <c r="M30" s="25">
-        <f>+$K30*M$20+M$21</f>
+      <c r="M30" s="24">
+        <f t="shared" si="6"/>
         <v>7.6999999999999993</v>
       </c>
-      <c r="N30" s="25">
-        <f>+$K30*N$20+N$21</f>
+      <c r="N30" s="24">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="O30" s="25">
-        <f>+$K30*O$20+O$21</f>
+      <c r="O30" s="24">
+        <f t="shared" si="7"/>
         <v>7.454545454545455</v>
       </c>
-      <c r="P30" s="25">
-        <f>+$K30*P$20+P$21</f>
+      <c r="P30" s="24">
+        <f t="shared" si="7"/>
         <v>6.9454545454545453</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>9</v>
       </c>
-      <c r="D31" s="24">
-        <f>+(C31+26.3)/0.05</f>
+      <c r="D31" s="23">
+        <f t="shared" si="2"/>
         <v>705.99999999999989</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>9</v>
       </c>
-      <c r="G31" s="24">
-        <f>+F31-C31</f>
+      <c r="G31" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" ref="H31:H38" si="3">+$K$17*D31+$L$17</f>
+        <f t="shared" ref="H31:H38" si="8">+$K$17*D31+$L$17</f>
         <v>35.428571428571388</v>
       </c>
       <c r="K31">
         <v>690</v>
       </c>
-      <c r="L31" s="25">
-        <f>+$K31*L$20+L$21</f>
+      <c r="L31" s="24">
+        <f t="shared" si="6"/>
         <v>11.399999999999999</v>
       </c>
-      <c r="M31" s="25">
-        <f>+$K31*M$20+M$21</f>
+      <c r="M31" s="24">
+        <f t="shared" si="6"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="N31" s="25">
-        <f>+$K31*N$20+N$21</f>
+      <c r="N31" s="24">
+        <f t="shared" si="6"/>
         <v>30.857142857142861</v>
       </c>
-      <c r="O31" s="25">
-        <f>+$K31*O$20+O$21</f>
+      <c r="O31" s="24">
+        <f t="shared" si="7"/>
         <v>7.6363636363636367</v>
       </c>
-      <c r="P31" s="25">
-        <f>+$K31*P$20+P$21</f>
+      <c r="P31" s="24">
+        <f t="shared" si="7"/>
         <v>7.0636363636363626</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>10</v>
       </c>
-      <c r="D32" s="24">
-        <f t="shared" ref="D32:D38" si="4">+(C32+26.3)/0.05</f>
+      <c r="D32" s="23">
+        <f t="shared" ref="D32:D38" si="9">+(C32+26.3)/0.05</f>
         <v>725.99999999999989</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>10</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>41.14285714285711</v>
       </c>
       <c r="K32">
         <v>700</v>
       </c>
-      <c r="L32" s="25">
-        <f>+$K32*L$20+L$21</f>
+      <c r="L32" s="24">
+        <f t="shared" si="6"/>
         <v>12.020689655172418</v>
       </c>
-      <c r="M32" s="25">
-        <f>+$K32*M$20+M$21</f>
+      <c r="M32" s="24">
+        <f t="shared" si="6"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="N32" s="25">
-        <f>+$K32*N$20+N$21</f>
+      <c r="N32" s="24">
+        <f t="shared" si="6"/>
         <v>33.714285714285722</v>
       </c>
-      <c r="O32" s="25">
-        <f>+$K32*O$20+O$21</f>
+      <c r="O32" s="24">
+        <f t="shared" si="7"/>
         <v>7.8181818181818183</v>
       </c>
-      <c r="P32" s="25">
-        <f>+$K32*P$20+P$21</f>
+      <c r="P32" s="24">
+        <f t="shared" si="7"/>
         <v>7.1818181818181817</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>11</v>
       </c>
-      <c r="D33" s="24">
-        <f t="shared" si="4"/>
+      <c r="D33" s="23">
+        <f t="shared" si="9"/>
         <v>745.99999999999989</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>11</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.857142857142833</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="28">
         <v>710</v>
       </c>
-      <c r="L33" s="25">
-        <f>+$K33*L$20+L$21</f>
+      <c r="L33" s="24">
+        <f t="shared" si="6"/>
         <v>12.641379310344831</v>
       </c>
-      <c r="M33" s="25">
-        <f>+$K33*M$20+M$21</f>
+      <c r="M33" s="24">
+        <f t="shared" si="6"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="N33" s="25">
-        <f>+$K33*N$20+N$21</f>
+      <c r="N33" s="24">
+        <f t="shared" si="6"/>
         <v>36.571428571428555</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="29">
         <v>8</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="29">
         <v>7.3</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>12</v>
       </c>
-      <c r="D34" s="24">
-        <f t="shared" si="4"/>
+      <c r="D34" s="23">
+        <f t="shared" si="9"/>
         <v>765.99999999999989</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>12</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>52.571428571428527</v>
       </c>
       <c r="K34">
         <v>720</v>
       </c>
-      <c r="L34" s="25">
-        <f t="shared" ref="L34:P40" si="5">+$K34*L$20+L$21</f>
+      <c r="L34" s="24">
+        <f t="shared" ref="L34:P40" si="10">+$K34*L$20+L$21</f>
         <v>13.262068965517244</v>
       </c>
-      <c r="M34" s="25">
-        <f t="shared" si="5"/>
+      <c r="M34" s="24">
+        <f t="shared" si="10"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="N34" s="25">
-        <f t="shared" si="5"/>
+      <c r="N34" s="24">
+        <f t="shared" si="10"/>
         <v>39.428571428571416</v>
       </c>
-      <c r="O34" s="25">
+      <c r="O34" s="24">
         <f>+$K34*O$20+O$21</f>
         <v>8.1818181818181817</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="24">
         <f>+$K34*P$20+P$21</f>
         <v>7.418181818181818</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <v>13</v>
       </c>
-      <c r="D35" s="24">
-        <f t="shared" si="4"/>
+      <c r="D35" s="23">
+        <f t="shared" si="9"/>
         <v>785.99999999999989</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>13</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>58.285714285714249</v>
       </c>
       <c r="K35">
         <v>730</v>
       </c>
-      <c r="L35" s="25">
-        <f t="shared" si="5"/>
+      <c r="L35" s="24">
+        <f t="shared" si="10"/>
         <v>13.882758620689657</v>
       </c>
-      <c r="M35" s="25">
-        <f t="shared" si="5"/>
+      <c r="M35" s="24">
+        <f t="shared" si="10"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="N35" s="25">
-        <f t="shared" si="5"/>
+      <c r="N35" s="24">
+        <f t="shared" si="10"/>
         <v>42.285714285714278</v>
       </c>
-      <c r="O35" s="25">
-        <f t="shared" si="5"/>
+      <c r="O35" s="24">
+        <f t="shared" si="10"/>
         <v>8.3636363636363633</v>
       </c>
-      <c r="P35" s="25">
-        <f t="shared" si="5"/>
+      <c r="P35" s="24">
+        <f t="shared" si="10"/>
         <v>7.5363636363636353</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>14</v>
       </c>
-      <c r="D36" s="24">
-        <f t="shared" si="4"/>
+      <c r="D36" s="23">
+        <f t="shared" si="9"/>
         <v>805.99999999999989</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <v>14</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>63.999999999999972</v>
       </c>
       <c r="K36">
         <v>740</v>
       </c>
-      <c r="L36" s="25">
-        <f t="shared" si="5"/>
+      <c r="L36" s="24">
+        <f t="shared" si="10"/>
         <v>14.50344827586207</v>
       </c>
-      <c r="M36" s="25">
-        <f t="shared" si="5"/>
+      <c r="M36" s="24">
+        <f t="shared" si="10"/>
         <v>10.7</v>
       </c>
-      <c r="N36" s="25">
-        <f t="shared" si="5"/>
+      <c r="N36" s="24">
+        <f t="shared" si="10"/>
         <v>45.142857142857139</v>
       </c>
-      <c r="O36" s="25">
-        <f t="shared" si="5"/>
+      <c r="O36" s="24">
+        <f t="shared" si="10"/>
         <v>8.545454545454545</v>
       </c>
-      <c r="P36" s="25">
-        <f t="shared" si="5"/>
+      <c r="P36" s="24">
+        <f t="shared" si="10"/>
         <v>7.6545454545454543</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>15</v>
       </c>
-      <c r="D37" s="24">
-        <f t="shared" si="4"/>
+      <c r="D37" s="23">
+        <f t="shared" si="9"/>
         <v>825.99999999999989</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>15</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>69.714285714285666</v>
       </c>
       <c r="K37">
         <v>750</v>
       </c>
-      <c r="L37" s="25">
-        <f t="shared" si="5"/>
+      <c r="L37" s="24">
+        <f t="shared" si="10"/>
         <v>15.124137931034483</v>
       </c>
-      <c r="M37" s="25">
-        <f t="shared" si="5"/>
+      <c r="M37" s="24">
+        <f t="shared" si="10"/>
         <v>11.2</v>
       </c>
-      <c r="N37" s="25">
-        <f t="shared" si="5"/>
+      <c r="N37" s="24">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="O37" s="25">
-        <f t="shared" si="5"/>
+      <c r="O37" s="24">
+        <f t="shared" si="10"/>
         <v>8.7272727272727266</v>
       </c>
-      <c r="P37" s="25">
-        <f t="shared" si="5"/>
+      <c r="P37" s="24">
+        <f t="shared" si="10"/>
         <v>7.7727272727272716</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>16</v>
       </c>
-      <c r="D38" s="24">
-        <f t="shared" si="4"/>
+      <c r="D38" s="23">
+        <f t="shared" si="9"/>
         <v>845.99999999999989</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="23">
         <v>16</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>75.428571428571388</v>
       </c>
       <c r="K38">
         <v>760</v>
       </c>
-      <c r="L38" s="25">
-        <f t="shared" si="5"/>
+      <c r="L38" s="24">
+        <f t="shared" si="10"/>
         <v>15.744827586206895</v>
       </c>
-      <c r="M38" s="25">
-        <f t="shared" si="5"/>
+      <c r="M38" s="24">
+        <f t="shared" si="10"/>
         <v>11.7</v>
       </c>
-      <c r="N38" s="25">
-        <f t="shared" si="5"/>
+      <c r="N38" s="24">
+        <f t="shared" si="10"/>
         <v>50.857142857142861</v>
       </c>
-      <c r="O38" s="25">
-        <f t="shared" si="5"/>
+      <c r="O38" s="24">
+        <f t="shared" si="10"/>
         <v>8.9090909090909101</v>
       </c>
-      <c r="P38" s="25">
-        <f t="shared" si="5"/>
+      <c r="P38" s="24">
+        <f t="shared" si="10"/>
         <v>7.8909090909090907</v>
       </c>
     </row>
@@ -4249,24 +4508,24 @@
       <c r="K39">
         <v>770</v>
       </c>
-      <c r="L39" s="25">
-        <f t="shared" si="5"/>
+      <c r="L39" s="24">
+        <f t="shared" si="10"/>
         <v>16.365517241379315</v>
       </c>
-      <c r="M39" s="25">
-        <f t="shared" si="5"/>
+      <c r="M39" s="24">
+        <f t="shared" si="10"/>
         <v>12.2</v>
       </c>
-      <c r="N39" s="25">
-        <f t="shared" si="5"/>
+      <c r="N39" s="24">
+        <f t="shared" si="10"/>
         <v>53.714285714285722</v>
       </c>
-      <c r="O39" s="25">
-        <f t="shared" si="5"/>
+      <c r="O39" s="24">
+        <f t="shared" si="10"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="P39" s="25">
-        <f t="shared" si="5"/>
+      <c r="P39" s="24">
+        <f t="shared" si="10"/>
         <v>8.0090909090909079</v>
       </c>
     </row>
@@ -4274,23 +4533,23 @@
       <c r="K40">
         <v>780</v>
       </c>
-      <c r="L40" s="25">
-        <f t="shared" si="5"/>
+      <c r="L40" s="24">
+        <f t="shared" si="10"/>
         <v>16.986206896551728</v>
       </c>
-      <c r="M40" s="25">
-        <f t="shared" si="5"/>
+      <c r="M40" s="24">
+        <f t="shared" si="10"/>
         <v>12.7</v>
       </c>
-      <c r="N40" s="25">
-        <f t="shared" si="5"/>
+      <c r="N40" s="24">
+        <f t="shared" si="10"/>
         <v>56.571428571428555</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="24">
         <f>+$K40*O$20+O$21</f>
         <v>9.2727272727272734</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="24">
         <f>+$K40*P$20+P$21</f>
         <v>8.127272727272727</v>
       </c>
@@ -4305,4 +4564,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="D6" s="2">
+        <f>+(0.00223611*B6^6-0.0530417*B6^5+0.496319*B6^4-2.30479*B6^3+5.51644*B6^2-6.16717*B6+3.14)</f>
+        <v>0.62999341000000042</v>
+      </c>
+      <c r="E6" s="34">
+        <f>+C6-D6</f>
+        <v>6.5899999995844283E-6</v>
+      </c>
+      <c r="F6" s="33">
+        <f>+E6/B6</f>
+        <v>6.5899999995844283E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="2">
+        <f>+D7</f>
+        <v>0.6578689685937511</v>
+      </c>
+      <c r="D7" s="2">
+        <f>+(0.00223611*B7^6-0.0530417*B7^5+0.496319*B7^4-2.30479*B7^3+5.51644*B7^2-6.16717*B7+3.14)</f>
+        <v>0.6578689685937511</v>
+      </c>
+      <c r="E7" s="34">
+        <f>+C7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f>+E7/B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D13" si="0">+(0.00223611*B8^6-0.0530417*B8^5+0.496319*B8^4-2.30479*B8^3+5.51644*B8^2-6.16717*B8+3.14)</f>
+        <v>0.81998064000000204</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" ref="E8:E13" si="1">+C8-D8</f>
+        <v>1.9359999997914379E-5</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" ref="F8:F13" si="2">+E8/B8</f>
+        <v>9.6799999989571894E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99995009000000179</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="1"/>
+        <v>4.9909999998209997E-5</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="2"/>
+        <v>1.6636666666069999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1298697600000014</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="1"/>
+        <v>1.3023999999850489E-4</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="2"/>
+        <v>3.2559999999626221E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4996812500000476</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="1"/>
+        <v>3.1874999995240572E-4</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="2"/>
+        <v>6.3749999990481143E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9992929600000262</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="1"/>
+        <v>7.0703999997379086E-4</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="2"/>
+        <v>1.1783999999563181E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9985724900000785</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="1"/>
+        <v>1.4275099999214724E-3</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="2"/>
+        <v>2.0392999998878177E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>1/72*2.54</f>
+        <v>3.5277777777777776E-2</v>
+      </c>
+      <c r="H24">
+        <v>2048</v>
+      </c>
+      <c r="I24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>254000</v>
+      </c>
+      <c r="G25" s="35">
+        <f>+F25*G24</f>
+        <v>8960.5555555555547</v>
+      </c>
+      <c r="H25">
+        <f>+F25/H24</f>
+        <v>124.0234375</v>
+      </c>
+      <c r="I25">
+        <f>+H25/I24</f>
+        <v>1.7225477430555556</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>177800</v>
+      </c>
+      <c r="G26" s="35">
+        <f>+F26*G24</f>
+        <v>6272.3888888888887</v>
+      </c>
+      <c r="H26">
+        <f>+F26/H24</f>
+        <v>86.81640625</v>
+      </c>
+      <c r="I26">
+        <f>+H26/I24</f>
+        <v>1.2057834201388888</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>H25/10*4/3</f>
+        <v>16.536458333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>H26/10*4/3</f>
+        <v>11.575520833333334</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>